--- a/meetrapporten/working/data.xlsx
+++ b/meetrapporten/working/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\Git\HU-Vision-1819-Base-FW-OF\meetrapporten\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E20B600-E5BB-44A2-8CFD-2AA1F8238168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262E4FFA-7E0E-441D-BB2C-A735CCD84647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{1C29CCC9-7210-421F-8AB7-A3C144CCE502}"/>
+    <workbookView xWindow="-19320" yWindow="-6150" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{1C29CCC9-7210-421F-8AB7-A3C144CCE502}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1281,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55350843-7D6A-4CDE-BD3A-423253252E60}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>51985400</v>
+        <v>23000600</v>
       </c>
       <c r="B28" s="4">
-        <v>40828500</v>
+        <v>50813900</v>
       </c>
       <c r="D28" s="3">
         <v>24249800</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>20817300</v>
+        <v>24167500</v>
       </c>
       <c r="B29" s="6">
-        <v>34532500</v>
+        <v>37752200</v>
       </c>
       <c r="D29" s="5">
         <v>29991900</v>
@@ -1945,10 +1945,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>23145200</v>
+        <v>21726000</v>
       </c>
       <c r="B30" s="4">
-        <v>38104800</v>
+        <v>34173300</v>
       </c>
       <c r="D30" s="3">
         <v>27120600</v>
@@ -1971,10 +1971,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>20694800</v>
+        <v>22594200</v>
       </c>
       <c r="B31" s="6">
-        <v>36520700</v>
+        <v>34024600</v>
       </c>
       <c r="D31" s="5">
         <v>24932200</v>
@@ -1997,10 +1997,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
-        <v>21001200</v>
+        <v>26380800</v>
       </c>
       <c r="B32" s="14">
-        <v>34719300</v>
+        <v>33743100</v>
       </c>
       <c r="D32" s="13">
         <v>26095100</v>
@@ -2024,11 +2024,11 @@
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <f>AVERAGE(A28:A32)</f>
-        <v>27528780</v>
+        <v>23573820</v>
       </c>
       <c r="B33" s="12">
         <f>AVERAGE(B28:B32)</f>
-        <v>36941160</v>
+        <v>38101420</v>
       </c>
       <c r="D33" s="11">
         <f>AVERAGE(D28:D32)</f>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="B34" s="9">
         <f>(B33/A33)-1</f>
-        <v>0.34191053871620891</v>
+        <v>0.61625990187419766</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>7</v>

--- a/meetrapporten/working/data.xlsx
+++ b/meetrapporten/working/data.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\Git\HU-Vision-1819-Base-FW-OF\meetrapporten\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262E4FFA-7E0E-441D-BB2C-A735CCD84647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3E6BDC-17D2-4FDE-8578-8F9144772E37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-6150" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{1C29CCC9-7210-421F-8AB7-A3C144CCE502}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{1C29CCC9-7210-421F-8AB7-A3C144CCE502}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
+    <sheet name="DATA" sheetId="3" r:id="rId3"/>
+    <sheet name="Overall" sheetId="4" r:id="rId4"/>
+    <sheet name="Images" sheetId="5" r:id="rId5"/>
+    <sheet name="Per Pixel" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="35">
   <si>
     <t>Default</t>
   </si>
@@ -80,12 +84,118 @@
   <si>
     <t>10x per test</t>
   </si>
+  <si>
+    <t>Default Class</t>
+  </si>
+  <si>
+    <t>Student Class</t>
+  </si>
+  <si>
+    <t>Female-1</t>
+  </si>
+  <si>
+    <t>Male-4</t>
+  </si>
+  <si>
+    <t>Male-5</t>
+  </si>
+  <si>
+    <t>Optimalisatie O2</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geen optimalisatie </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Single-threading</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Multi-threading</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Every test is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> times pre-processing step 1</t>
+    </r>
+  </si>
+  <si>
+    <t>AVG Student Class</t>
+  </si>
+  <si>
+    <t>AVG Default Class</t>
+  </si>
+  <si>
+    <t>Animal-1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Animal is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> times pre-processing step 1</t>
+    </r>
+  </si>
+  <si>
+    <t>100 samples</t>
+  </si>
+  <si>
+    <t>10 samples</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,8 +226,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,8 +275,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -218,12 +369,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -241,6 +434,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
@@ -402,6 +642,5634 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Pre-proccesing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> step 1 </a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overall!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG Student Class</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overall!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>OS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overall!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8412612.9499999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27480603.800000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10560982.199999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21930163.949999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77A0-4511-9A3B-F4F17AFDEB77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overall!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG Default Class</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overall!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>OS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overall!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9178207.9000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36168162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10630966.050000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37649432.299999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-77A0-4511-9A3B-F4F17AFDEB77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="412379592"/>
+        <c:axId val="412380904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="412379592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412380904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="412380904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412379592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Student Class:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> T</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>ests</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> vs Images</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Images!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Images!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Female-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Images!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1456240.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1681179.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6435786.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24077245.600000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177465132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC3B-4FC8-9B74-536309095675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Images!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Images!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Female-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Images!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7003057</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5804563.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7980986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21455322.399999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70179042</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FC3B-4FC8-9B74-536309095675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Images!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Images!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Female-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Images!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6177917.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5779332.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19191965.199999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78773200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>418526988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FC3B-4FC8-9B74-536309095675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Images!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Images!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Female-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Images!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8104235.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8567724.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17153991.399999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53894704.399999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>147836456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FC3B-4FC8-9B74-536309095675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="485122128"/>
+        <c:axId val="485122784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="485122128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485122784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="485122784"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485122128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Default Class: Tests vs. Images</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Images!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Images!$G$4:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Images!$J$3:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6DB0-48A7-A34B-6E7A92A32B96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Images!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Images!$G$4:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Images!$H$4:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1426075.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7233783.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26253628</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>228688058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6DB0-48A7-A34B-6E7A92A32B96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Images!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Images!$G$4:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Images!$I$4:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6180649.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21419420.600000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111072773.59999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>556104290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6DB0-48A7-A34B-6E7A92A32B96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Images!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Images!$G$4:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Images!$K$3:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6DB0-48A7-A34B-6E7A92A32B96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="489051816"/>
+        <c:axId val="489051488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="489051816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489051488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="489051488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489051816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Student Class:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> T</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>ests</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> vs Images</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Pixel'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Pixel'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Female-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Pixel'!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>28.945342874180081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.301598257080609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.861865377565984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.920590743309191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.219528198242188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D88-4605-8D3C-C99E7BE990AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Pixel'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Pixel'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Female-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Pixel'!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>139.19811170741403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.16886100217866</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.712209035923756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.553452509374839</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.745755513509113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D88-4605-8D3C-C99E7BE990AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Pixel'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Pixel'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Female-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Pixel'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>122.79701451003777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.72910152505447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>109.92465405058651</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.16248009451893</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177.39486185709634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8D88-4605-8D3C-C99E7BE990AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Pixel'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Pixel'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Female-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Pixel'!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>161.08597495527729</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>149.32853333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.251875229105565</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.212904402321882</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.661258273654511</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8D88-4605-8D3C-C99E7BE990AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="485122128"/>
+        <c:axId val="485122784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="485122128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485122784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="485122784"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485122128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Default Class: Tests vs. Images</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Pixel'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Pixel'!$G$4:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Pixel'!$J$3:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EFB0-4648-A6B1-4F618BED845C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Pixel'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Pixel'!$G$4:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Pixel'!$H$4:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1426075.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7233783.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26253628</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>228688058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EFB0-4648-A6B1-4F618BED845C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Pixel'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Pixel'!$G$4:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Pixel'!$I$4:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6180649.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21419420.600000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111072773.59999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>556104290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EFB0-4648-A6B1-4F618BED845C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Pixel'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Pixel'!$G$4:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Pixel'!$K$3:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EFB0-4648-A6B1-4F618BED845C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="489051816"/>
+        <c:axId val="489051488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="489051816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489051488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="489051488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489051816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC6D29C3-61E1-4C70-8524-38D2E98B3B6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16838FB9-8526-4473-91D3-64D22EC92323}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>423861</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafiek 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC582B8-7326-4C66-B014-3C660594F248}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E1D5173-FE89-493E-8A5C-9B980ACC70CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>423861</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafiek 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F9EC68-168F-43EE-87FE-B5996FE0B257}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1281,7 +7149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55350843-7D6A-4CDE-BD3A-423253252E60}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -2100,4 +7968,1713 @@
     <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06918617-E87E-42D9-8CA3-6BB05D21E30B}">
+  <dimension ref="A1:K47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="11" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="23">
+        <v>180864700</v>
+      </c>
+      <c r="C7" s="26">
+        <v>757285600</v>
+      </c>
+      <c r="D7" s="26">
+        <v>923948600</v>
+      </c>
+      <c r="E7" s="21">
+        <v>628110700</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="23">
+        <v>140393900</v>
+      </c>
+      <c r="I7" s="26">
+        <v>666056000</v>
+      </c>
+      <c r="J7" s="40">
+        <v>171586100</v>
+      </c>
+      <c r="K7" s="41">
+        <v>608881900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="23">
+        <v>162445400</v>
+      </c>
+      <c r="C8" s="26">
+        <v>640912900</v>
+      </c>
+      <c r="D8" s="26">
+        <v>598335200</v>
+      </c>
+      <c r="E8" s="21">
+        <v>1781656400</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="23">
+        <v>138415400</v>
+      </c>
+      <c r="I8" s="26">
+        <v>615432400</v>
+      </c>
+      <c r="J8" s="40">
+        <v>127781000</v>
+      </c>
+      <c r="K8" s="41">
+        <v>596482600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="23">
+        <v>161765500</v>
+      </c>
+      <c r="C9" s="26">
+        <v>517842800</v>
+      </c>
+      <c r="D9" s="26">
+        <v>569627700</v>
+      </c>
+      <c r="E9" s="21">
+        <v>700502000</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="23">
+        <v>153405800</v>
+      </c>
+      <c r="I9" s="26">
+        <v>592689300</v>
+      </c>
+      <c r="J9" s="40">
+        <v>133941200</v>
+      </c>
+      <c r="K9" s="41">
+        <v>591553100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="23">
+        <v>166638000</v>
+      </c>
+      <c r="C10" s="26">
+        <v>512369900</v>
+      </c>
+      <c r="D10" s="26">
+        <v>452688100</v>
+      </c>
+      <c r="E10" s="21">
+        <v>635744400</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="23">
+        <v>147653200</v>
+      </c>
+      <c r="I10" s="26">
+        <v>616219800</v>
+      </c>
+      <c r="J10" s="40">
+        <v>136991700</v>
+      </c>
+      <c r="K10" s="41">
+        <v>691582400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="35">
+        <v>168876000</v>
+      </c>
+      <c r="C11" s="35">
+        <v>461254900</v>
+      </c>
+      <c r="D11" s="35">
+        <v>357682100</v>
+      </c>
+      <c r="E11" s="36">
+        <v>537848800</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="35">
+        <v>133169400</v>
+      </c>
+      <c r="I11" s="35">
+        <v>599927200</v>
+      </c>
+      <c r="J11" s="42">
+        <v>120887900</v>
+      </c>
+      <c r="K11" s="43">
+        <v>581694700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="34">
+        <f>AVERAGE(B7:B11)</f>
+        <v>168117920</v>
+      </c>
+      <c r="C12" s="33">
+        <f>AVERAGE(C7:C11)</f>
+        <v>577933220</v>
+      </c>
+      <c r="D12" s="33">
+        <f>AVERAGE(D7:D11)</f>
+        <v>580456340</v>
+      </c>
+      <c r="E12" s="33">
+        <f>AVERAGE(E7:E11)</f>
+        <v>856772460</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="34">
+        <f>AVERAGE(H7:H11)</f>
+        <v>142607540</v>
+      </c>
+      <c r="I12" s="33">
+        <f>AVERAGE(I7:I11)</f>
+        <v>618064940</v>
+      </c>
+      <c r="J12" s="44">
+        <f>AVERAGE(J7:J11)</f>
+        <v>138237580</v>
+      </c>
+      <c r="K12" s="44">
+        <f>AVERAGE(K7:K11)</f>
+        <v>614038940</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="46"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="23">
+        <v>167878700</v>
+      </c>
+      <c r="C14" s="26">
+        <v>838774000</v>
+      </c>
+      <c r="D14" s="26">
+        <v>516363600</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1382683400</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="23">
+        <v>190057500</v>
+      </c>
+      <c r="I14" s="26">
+        <v>596530900</v>
+      </c>
+      <c r="J14" s="40">
+        <v>146188800</v>
+      </c>
+      <c r="K14" s="41">
+        <v>665690900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="23">
+        <v>149529500</v>
+      </c>
+      <c r="C15" s="26">
+        <v>665389600</v>
+      </c>
+      <c r="D15" s="26">
+        <v>1473162700</v>
+      </c>
+      <c r="E15" s="21">
+        <v>873731400</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="23">
+        <v>154147500</v>
+      </c>
+      <c r="I15" s="26">
+        <v>588577100</v>
+      </c>
+      <c r="J15" s="40">
+        <v>140799300</v>
+      </c>
+      <c r="K15" s="41">
+        <v>612049600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="23">
+        <v>137392500</v>
+      </c>
+      <c r="C16" s="26">
+        <v>586412900</v>
+      </c>
+      <c r="D16" s="26">
+        <v>693738200</v>
+      </c>
+      <c r="E16" s="21">
+        <v>552068300</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="23">
+        <v>210465100</v>
+      </c>
+      <c r="I16" s="26">
+        <v>605766700</v>
+      </c>
+      <c r="J16" s="40">
+        <v>147376500</v>
+      </c>
+      <c r="K16" s="41">
+        <v>599449100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="23">
+        <v>135789700</v>
+      </c>
+      <c r="C17" s="26">
+        <v>508044700</v>
+      </c>
+      <c r="D17" s="26">
+        <v>436786800</v>
+      </c>
+      <c r="E17" s="21">
+        <v>621217700</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="23">
+        <v>181499500</v>
+      </c>
+      <c r="I17" s="26">
+        <v>597299200</v>
+      </c>
+      <c r="J17" s="40">
+        <v>142773600</v>
+      </c>
+      <c r="K17" s="41">
+        <v>599529100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="35">
+        <v>137529700</v>
+      </c>
+      <c r="C18" s="35">
+        <v>490337700</v>
+      </c>
+      <c r="D18" s="35">
+        <v>381477200</v>
+      </c>
+      <c r="E18" s="36">
+        <v>622416900</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="35">
+        <v>163502900</v>
+      </c>
+      <c r="I18" s="35">
+        <v>611728300</v>
+      </c>
+      <c r="J18" s="42">
+        <v>135010100</v>
+      </c>
+      <c r="K18" s="43">
+        <v>598859600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="34">
+        <f>AVERAGE(B14:B18)</f>
+        <v>145624020</v>
+      </c>
+      <c r="C19" s="33">
+        <f>AVERAGE(C14:C18)</f>
+        <v>617791780</v>
+      </c>
+      <c r="D19" s="33">
+        <f>AVERAGE(D14:D18)</f>
+        <v>700305700</v>
+      </c>
+      <c r="E19" s="33">
+        <f>AVERAGE(E14:E18)</f>
+        <v>810423540</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="34">
+        <f>AVERAGE(H14:H18)</f>
+        <v>179934500</v>
+      </c>
+      <c r="I19" s="33">
+        <f>AVERAGE(I14:I18)</f>
+        <v>599980440</v>
+      </c>
+      <c r="J19" s="44">
+        <f>AVERAGE(J14:J18)</f>
+        <v>142429660</v>
+      </c>
+      <c r="K19" s="44">
+        <f>AVERAGE(K14:K18)</f>
+        <v>615115660</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="46"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="23">
+        <v>554010500</v>
+      </c>
+      <c r="C21" s="26">
+        <v>2110608100</v>
+      </c>
+      <c r="D21" s="26">
+        <v>1332333900</v>
+      </c>
+      <c r="E21" s="21">
+        <v>2454656800</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="23">
+        <v>1010417300</v>
+      </c>
+      <c r="I21" s="26">
+        <v>2150367500</v>
+      </c>
+      <c r="J21" s="40">
+        <v>547612600</v>
+      </c>
+      <c r="K21" s="41">
+        <v>2397398900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="23">
+        <v>525276400</v>
+      </c>
+      <c r="C22" s="26">
+        <v>2690071400</v>
+      </c>
+      <c r="D22" s="26">
+        <v>830082400</v>
+      </c>
+      <c r="E22" s="21">
+        <v>1484870600</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="23">
+        <v>694622800</v>
+      </c>
+      <c r="I22" s="26">
+        <v>2131887600</v>
+      </c>
+      <c r="J22" s="40">
+        <v>521526500</v>
+      </c>
+      <c r="K22" s="41">
+        <v>2350414100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="23">
+        <v>521435600</v>
+      </c>
+      <c r="C23" s="26">
+        <v>1668088900</v>
+      </c>
+      <c r="D23" s="26">
+        <v>648301600</v>
+      </c>
+      <c r="E23" s="21">
+        <v>1589449400</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="23">
+        <v>608576600</v>
+      </c>
+      <c r="I23" s="26">
+        <v>2168401800</v>
+      </c>
+      <c r="J23" s="40">
+        <v>514421200</v>
+      </c>
+      <c r="K23" s="41">
+        <v>2415177600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="23">
+        <v>652585400</v>
+      </c>
+      <c r="C24" s="26">
+        <v>1555005400</v>
+      </c>
+      <c r="D24" s="26">
+        <v>626913700</v>
+      </c>
+      <c r="E24" s="21">
+        <v>1532039500</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="23">
+        <v>617556300</v>
+      </c>
+      <c r="I24" s="26">
+        <v>2130157900</v>
+      </c>
+      <c r="J24" s="40">
+        <v>520361600</v>
+      </c>
+      <c r="K24" s="41">
+        <v>2330596600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="35">
+        <v>964585500</v>
+      </c>
+      <c r="C25" s="35">
+        <v>1572208800</v>
+      </c>
+      <c r="D25" s="35">
+        <v>552861400</v>
+      </c>
+      <c r="E25" s="36">
+        <v>1515979400</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="35">
+        <v>685718600</v>
+      </c>
+      <c r="I25" s="35">
+        <v>2128895500</v>
+      </c>
+      <c r="J25" s="42">
+        <v>522286100</v>
+      </c>
+      <c r="K25" s="43">
+        <v>2347866900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="34">
+        <f>AVERAGE(B21:B25)</f>
+        <v>643578680</v>
+      </c>
+      <c r="C26" s="33">
+        <f>AVERAGE(C21:C25)</f>
+        <v>1919196520</v>
+      </c>
+      <c r="D26" s="33">
+        <f>AVERAGE(D21:D25)</f>
+        <v>798098600</v>
+      </c>
+      <c r="E26" s="33">
+        <f>AVERAGE(E21:E25)</f>
+        <v>1715399140</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="34">
+        <f>AVERAGE(H21:H25)</f>
+        <v>723378320</v>
+      </c>
+      <c r="I26" s="33">
+        <f>AVERAGE(I21:I25)</f>
+        <v>2141942060</v>
+      </c>
+      <c r="J26" s="44">
+        <f>AVERAGE(J21:J25)</f>
+        <v>525241600</v>
+      </c>
+      <c r="K26" s="44">
+        <f>AVERAGE(K21:K25)</f>
+        <v>2368290820</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="46"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="23">
+        <v>3210855600</v>
+      </c>
+      <c r="C28" s="26">
+        <v>7843665100</v>
+      </c>
+      <c r="D28" s="26">
+        <v>2407670200</v>
+      </c>
+      <c r="E28" s="21">
+        <v>5268675400</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="23">
+        <v>2661443100</v>
+      </c>
+      <c r="I28" s="26">
+        <v>11317604700</v>
+      </c>
+      <c r="J28" s="40">
+        <v>3976731000</v>
+      </c>
+      <c r="K28" s="41">
+        <v>12656880100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="23">
+        <v>2655215000</v>
+      </c>
+      <c r="C29" s="26">
+        <v>7286609500</v>
+      </c>
+      <c r="D29" s="26">
+        <v>3162210900</v>
+      </c>
+      <c r="E29" s="21">
+        <v>4508212100</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="23">
+        <v>2609242900</v>
+      </c>
+      <c r="I29" s="26">
+        <v>10910300900</v>
+      </c>
+      <c r="J29" s="40">
+        <v>3093491000</v>
+      </c>
+      <c r="K29" s="41">
+        <v>10865316000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="23">
+        <v>2072083100</v>
+      </c>
+      <c r="C30" s="26">
+        <v>7370217900</v>
+      </c>
+      <c r="D30" s="26">
+        <v>1775859300</v>
+      </c>
+      <c r="E30" s="21">
+        <v>5681585000</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="23">
+        <v>2586306600</v>
+      </c>
+      <c r="I30" s="26">
+        <v>11172444900</v>
+      </c>
+      <c r="J30" s="40">
+        <v>3449024000</v>
+      </c>
+      <c r="K30" s="41">
+        <v>10810085100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="23">
+        <v>2053688000</v>
+      </c>
+      <c r="C31" s="26">
+        <v>8442621900</v>
+      </c>
+      <c r="D31" s="26">
+        <v>1694748200</v>
+      </c>
+      <c r="E31" s="21">
+        <v>5773553800</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="23">
+        <v>2598502300</v>
+      </c>
+      <c r="I31" s="26">
+        <v>11316889500</v>
+      </c>
+      <c r="J31" s="40">
+        <v>2901972200</v>
+      </c>
+      <c r="K31" s="41">
+        <v>12144728100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="35">
+        <v>2046781100</v>
+      </c>
+      <c r="C32" s="35">
+        <v>8443485600</v>
+      </c>
+      <c r="D32" s="35">
+        <v>1687172600</v>
+      </c>
+      <c r="E32" s="36">
+        <v>5715325900</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="35">
+        <v>2671319100</v>
+      </c>
+      <c r="I32" s="35">
+        <v>10819146800</v>
+      </c>
+      <c r="J32" s="42">
+        <v>3811169700</v>
+      </c>
+      <c r="K32" s="43">
+        <v>10834628200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="34">
+        <f>AVERAGE(B28:B32)</f>
+        <v>2407724560</v>
+      </c>
+      <c r="C33" s="33">
+        <f>AVERAGE(C28:C32)</f>
+        <v>7877320000</v>
+      </c>
+      <c r="D33" s="33">
+        <f>AVERAGE(D28:D32)</f>
+        <v>2145532240</v>
+      </c>
+      <c r="E33" s="33">
+        <f>AVERAGE(E28:E32)</f>
+        <v>5389470440</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="34">
+        <f>AVERAGE(H28:H32)</f>
+        <v>2625362800</v>
+      </c>
+      <c r="I33" s="33">
+        <f>AVERAGE(I28:I32)</f>
+        <v>11107277360</v>
+      </c>
+      <c r="J33" s="44">
+        <f>AVERAGE(J28:J32)</f>
+        <v>3446477580</v>
+      </c>
+      <c r="K33" s="44">
+        <f>AVERAGE(K28:K32)</f>
+        <v>11462327500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="46"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="23">
+        <v>1895250800</v>
+      </c>
+      <c r="C35" s="26">
+        <v>4759066600</v>
+      </c>
+      <c r="D35" s="26">
+        <v>1381439900</v>
+      </c>
+      <c r="E35" s="21">
+        <v>1612830200</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="23">
+        <v>2254591300</v>
+      </c>
+      <c r="I35" s="26">
+        <v>5506063300</v>
+      </c>
+      <c r="J35" s="40">
+        <v>2093953200</v>
+      </c>
+      <c r="K35" s="41">
+        <v>5723281600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="23">
+        <v>1732424600</v>
+      </c>
+      <c r="C36" s="26">
+        <v>3879787000</v>
+      </c>
+      <c r="D36" s="26">
+        <v>607916400</v>
+      </c>
+      <c r="E36" s="21">
+        <v>1406701700</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="23">
+        <v>2235737500</v>
+      </c>
+      <c r="I36" s="26">
+        <v>5652737500</v>
+      </c>
+      <c r="J36" s="40">
+        <v>2108519000</v>
+      </c>
+      <c r="K36" s="41">
+        <v>5389355100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="23">
+        <v>1775494200</v>
+      </c>
+      <c r="C37" s="26">
+        <v>4881481400</v>
+      </c>
+      <c r="D37" s="26">
+        <v>519001100</v>
+      </c>
+      <c r="E37" s="21">
+        <v>1428850700</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="23">
+        <v>2259621900</v>
+      </c>
+      <c r="I37" s="26">
+        <v>5784283300</v>
+      </c>
+      <c r="J37" s="40">
+        <v>2158513900</v>
+      </c>
+      <c r="K37" s="41">
+        <v>5657967500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="23">
+        <v>1735468700</v>
+      </c>
+      <c r="C38" s="26">
+        <v>3569592900</v>
+      </c>
+      <c r="D38" s="26">
+        <v>502822900</v>
+      </c>
+      <c r="E38" s="21">
+        <v>1451189400</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="23">
+        <v>2255840300</v>
+      </c>
+      <c r="I38" s="26">
+        <v>5447923700</v>
+      </c>
+      <c r="J38" s="40">
+        <v>2340664600</v>
+      </c>
+      <c r="K38" s="41">
+        <v>5675543200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="35">
+        <v>1734618300</v>
+      </c>
+      <c r="C39" s="35">
+        <v>3836421500</v>
+      </c>
+      <c r="D39" s="35">
+        <v>497771800</v>
+      </c>
+      <c r="E39" s="36">
+        <v>1492250800</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="35">
+        <v>2428611900</v>
+      </c>
+      <c r="I39" s="35">
+        <v>5414206700</v>
+      </c>
+      <c r="J39" s="42">
+        <v>2188425000</v>
+      </c>
+      <c r="K39" s="43">
+        <v>5816413900</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="34">
+        <f>AVERAGE(B35:B39)</f>
+        <v>1774651320</v>
+      </c>
+      <c r="C40" s="33">
+        <f>AVERAGE(C35:C39)</f>
+        <v>4185269880</v>
+      </c>
+      <c r="D40" s="33">
+        <f>AVERAGE(D35:D39)</f>
+        <v>701790420</v>
+      </c>
+      <c r="E40" s="33">
+        <f>AVERAGE(E35:E39)</f>
+        <v>1478364560</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="34">
+        <f>AVERAGE(H35:H39)</f>
+        <v>2286880580</v>
+      </c>
+      <c r="I40" s="33">
+        <f>AVERAGE(I35:I39)</f>
+        <v>5561042900</v>
+      </c>
+      <c r="J40" s="44">
+        <f>AVERAGE(J35:J39)</f>
+        <v>2178015140</v>
+      </c>
+      <c r="K40" s="44">
+        <f>AVERAGE(K35:K39)</f>
+        <v>5652512260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="47">
+        <v>57375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="47">
+        <v>50310</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="47">
+        <v>174592</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="47">
+        <v>778680</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="47">
+        <v>2359296</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="G35:G40"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="G21:G26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18C5A61-2BE1-4907-AEE6-E784A8291BE0}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="24"/>
+      <c r="B1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="18">
+        <f>AVERAGE(DATA!B12,DATA!B19,DATA!B26,DATA!B33)/100</f>
+        <v>8412612.9499999993</v>
+      </c>
+      <c r="C2" s="18">
+        <f>AVERAGE(DATA!C12,DATA!C19,DATA!C26,DATA!C33)/100</f>
+        <v>27480603.800000001</v>
+      </c>
+      <c r="D2" s="18">
+        <f>AVERAGE(DATA!D12,DATA!D19,DATA!D26,DATA!D33)/100</f>
+        <v>10560982.199999999</v>
+      </c>
+      <c r="E2" s="18">
+        <f>AVERAGE(DATA!E12,DATA!E19,DATA!E26,DATA!E33)/100</f>
+        <v>21930163.949999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="18">
+        <f>AVERAGE(DATA!H12,DATA!H19,DATA!H26,DATA!H33)/100</f>
+        <v>9178207.9000000004</v>
+      </c>
+      <c r="C3" s="18">
+        <f>AVERAGE(DATA!I12,DATA!I19,DATA!I26,DATA!I33)/100</f>
+        <v>36168162</v>
+      </c>
+      <c r="D3" s="18">
+        <f>AVERAGE(DATA!J12,DATA!J19,DATA!J26,DATA!J33)/100</f>
+        <v>10630966.050000001</v>
+      </c>
+      <c r="E3" s="18">
+        <f>AVERAGE(DATA!K12,DATA!K19,DATA!K26,DATA!K33)/100</f>
+        <v>37649432.299999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB95D9F3-7D9C-4FDE-B14D-23BCBCFA1056}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="11" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="30">
+        <f>DATA!B19/100</f>
+        <v>1456240.2</v>
+      </c>
+      <c r="C3" s="30">
+        <f>DATA!C19/100</f>
+        <v>6177917.7999999998</v>
+      </c>
+      <c r="D3" s="30">
+        <f>DATA!D19/100</f>
+        <v>7003057</v>
+      </c>
+      <c r="E3" s="30">
+        <f>DATA!E19/100</f>
+        <v>8104235.4000000004</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="30">
+        <f>DATA!H19/100</f>
+        <v>1799345</v>
+      </c>
+      <c r="I3" s="30">
+        <f>DATA!I19/100</f>
+        <v>5999804.4000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="30">
+        <f>DATA!B12/100</f>
+        <v>1681179.2</v>
+      </c>
+      <c r="C4" s="30">
+        <f>DATA!C12/100</f>
+        <v>5779332.2000000002</v>
+      </c>
+      <c r="D4" s="30">
+        <f>DATA!D12/100</f>
+        <v>5804563.4000000004</v>
+      </c>
+      <c r="E4" s="30">
+        <f>DATA!E12/100</f>
+        <v>8567724.5999999996</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="30">
+        <f>DATA!H12/100</f>
+        <v>1426075.4</v>
+      </c>
+      <c r="I4" s="30">
+        <f>DATA!I12/100</f>
+        <v>6180649.4000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="30">
+        <f>DATA!B26/100</f>
+        <v>6435786.7999999998</v>
+      </c>
+      <c r="C5" s="30">
+        <f>DATA!C26/100</f>
+        <v>19191965.199999999</v>
+      </c>
+      <c r="D5" s="30">
+        <f>DATA!D26/100</f>
+        <v>7980986</v>
+      </c>
+      <c r="E5" s="30">
+        <f>DATA!E26/100</f>
+        <v>17153991.399999999</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="30">
+        <f>DATA!H26/100</f>
+        <v>7233783.2000000002</v>
+      </c>
+      <c r="I5" s="30">
+        <f>DATA!I26/100</f>
+        <v>21419420.600000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="30">
+        <f>DATA!B33/100</f>
+        <v>24077245.600000001</v>
+      </c>
+      <c r="C6" s="30">
+        <f>DATA!C33/100</f>
+        <v>78773200</v>
+      </c>
+      <c r="D6" s="30">
+        <f>DATA!D33/100</f>
+        <v>21455322.399999999</v>
+      </c>
+      <c r="E6" s="30">
+        <f>DATA!E33/100</f>
+        <v>53894704.399999999</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="30">
+        <f>DATA!H33/100</f>
+        <v>26253628</v>
+      </c>
+      <c r="I6" s="30">
+        <f>DATA!I33/100</f>
+        <v>111072773.59999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="30">
+        <f>DATA!B40/10</f>
+        <v>177465132</v>
+      </c>
+      <c r="C7" s="30">
+        <f>DATA!C40/10</f>
+        <v>418526988</v>
+      </c>
+      <c r="D7" s="30">
+        <f>DATA!D40/10</f>
+        <v>70179042</v>
+      </c>
+      <c r="E7" s="30">
+        <f>DATA!E40/10</f>
+        <v>147836456</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="30">
+        <f>DATA!H40/10</f>
+        <v>228688058</v>
+      </c>
+      <c r="I7" s="30">
+        <f>DATA!I40/10</f>
+        <v>556104290</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D2FBC4-1CAA-4947-BA92-D277B849FA05}">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="11" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="30">
+        <f>(DATA!B19/100)/L3</f>
+        <v>28.945342874180081</v>
+      </c>
+      <c r="C3" s="30">
+        <f>(DATA!C19/100)/L3</f>
+        <v>122.79701451003777</v>
+      </c>
+      <c r="D3" s="30">
+        <f>(DATA!D19/100)/L3</f>
+        <v>139.19811170741403</v>
+      </c>
+      <c r="E3" s="30">
+        <f>(DATA!E19/100)/L3</f>
+        <v>161.08597495527729</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="30">
+        <f>DATA!H19/100</f>
+        <v>1799345</v>
+      </c>
+      <c r="I3" s="30">
+        <f>DATA!I19/100</f>
+        <v>5999804.4000000004</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="47">
+        <v>50310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="30">
+        <f>(DATA!B12/100)/L4</f>
+        <v>29.301598257080609</v>
+      </c>
+      <c r="C4" s="30">
+        <f>(DATA!C12/100)/L4</f>
+        <v>100.72910152505447</v>
+      </c>
+      <c r="D4" s="30">
+        <f>(DATA!D12/100)/L4</f>
+        <v>101.16886100217866</v>
+      </c>
+      <c r="E4" s="30">
+        <f>(DATA!E12/100)/L4</f>
+        <v>149.32853333333333</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="30">
+        <f>DATA!H12/100</f>
+        <v>1426075.4</v>
+      </c>
+      <c r="I4" s="30">
+        <f>DATA!I12/100</f>
+        <v>6180649.4000000004</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="47">
+        <v>57375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="30">
+        <f>(DATA!B26/100)/L5</f>
+        <v>36.861865377565984</v>
+      </c>
+      <c r="C5" s="30">
+        <f>(DATA!C26/100)/L5</f>
+        <v>109.92465405058651</v>
+      </c>
+      <c r="D5" s="30">
+        <f>(DATA!D26/100)/L5</f>
+        <v>45.712209035923756</v>
+      </c>
+      <c r="E5" s="30">
+        <f>(DATA!E26/100)/L5</f>
+        <v>98.251875229105565</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="30">
+        <f>DATA!H26/100</f>
+        <v>7233783.2000000002</v>
+      </c>
+      <c r="I5" s="30">
+        <f>DATA!I26/100</f>
+        <v>21419420.600000001</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="47">
+        <v>174592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="30">
+        <f>(DATA!B33/100)/L6</f>
+        <v>30.920590743309191</v>
+      </c>
+      <c r="C6" s="30">
+        <f>(DATA!C33/100)/L6</f>
+        <v>101.16248009451893</v>
+      </c>
+      <c r="D6" s="30">
+        <f>(DATA!D33/100)/L6</f>
+        <v>27.553452509374839</v>
+      </c>
+      <c r="E6" s="30">
+        <f>(DATA!E33/100)/L6</f>
+        <v>69.212904402321882</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="30">
+        <f>DATA!H33/100</f>
+        <v>26253628</v>
+      </c>
+      <c r="I6" s="30">
+        <f>DATA!I33/100</f>
+        <v>111072773.59999999</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="47">
+        <v>778680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="30">
+        <f>(DATA!B40/10)/L7</f>
+        <v>75.219528198242188</v>
+      </c>
+      <c r="C7" s="30">
+        <f>(DATA!C40/10)/L7</f>
+        <v>177.39486185709634</v>
+      </c>
+      <c r="D7" s="30">
+        <f>(DATA!D40/10)/L7</f>
+        <v>29.745755513509113</v>
+      </c>
+      <c r="E7" s="30">
+        <f>(DATA!E40/10)/L7</f>
+        <v>62.661258273654511</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="30">
+        <f>DATA!H40/10</f>
+        <v>228688058</v>
+      </c>
+      <c r="I7" s="30">
+        <f>DATA!I40/10</f>
+        <v>556104290</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="47">
+        <v>2359296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/meetrapporten/working/data.xlsx
+++ b/meetrapporten/working/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\Git\HU-Vision-1819-Base-FW-OF\meetrapporten\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3E6BDC-17D2-4FDE-8578-8F9144772E37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350A9432-28B7-452F-B290-BD32EE6F687A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{1C29CCC9-7210-421F-8AB7-A3C144CCE502}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{1C29CCC9-7210-421F-8AB7-A3C144CCE502}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="38">
   <si>
     <t>Default</t>
   </si>
@@ -189,6 +189,15 @@
   </si>
   <si>
     <t>10 samples</t>
+  </si>
+  <si>
+    <t>Optimization /O2</t>
+  </si>
+  <si>
+    <t>Disabled /Od</t>
+  </si>
+  <si>
+    <t>Verbetering in percentage</t>
   </si>
 </sst>
 </file>
@@ -751,41 +760,29 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Overall!$B$1:$E$1</c:f>
+              <c:f>Overall!$B$1:$C$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>OS</c:v>
+                  <c:v>Optimization /O2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>GS</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>OM</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>GM</c:v>
+                  <c:v>Disabled /Od</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overall!$B$2:$E$2</c:f>
+              <c:f>Overall!$B$2:$C$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>8412612.9499999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>27480603.800000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10560982.199999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21930163.949999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -822,41 +819,29 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Overall!$B$1:$E$1</c:f>
+              <c:f>Overall!$B$1:$C$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>OS</c:v>
+                  <c:v>Optimization /O2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>GS</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>OM</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>GM</c:v>
+                  <c:v>Disabled /Od</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overall!$B$3:$E$3</c:f>
+              <c:f>Overall!$B$3:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>9178207.9000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>36168162</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10630966.050000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37649432.299999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6072,15 +6057,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>276224</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7974,8 +7959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06918617-E87E-42D9-8CA3-6BB05D21E30B}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:C47"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="B43:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9163,31 +9148,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18C5A61-2BE1-4907-AEE6-E784A8291BE0}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="24"/>
       <c r="B1" s="30" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>24</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -9201,14 +9184,8 @@
         <f>AVERAGE(DATA!C12,DATA!C19,DATA!C26,DATA!C33)/100</f>
         <v>27480603.800000001</v>
       </c>
-      <c r="D2" s="18">
-        <f>AVERAGE(DATA!D12,DATA!D19,DATA!D26,DATA!D33)/100</f>
-        <v>10560982.199999999</v>
-      </c>
-      <c r="E2" s="18">
-        <f>AVERAGE(DATA!E12,DATA!E19,DATA!E26,DATA!E33)/100</f>
-        <v>21930163.949999999</v>
-      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -9222,13 +9199,20 @@
         <f>AVERAGE(DATA!I12,DATA!I19,DATA!I26,DATA!I33)/100</f>
         <v>36168162</v>
       </c>
-      <c r="D3" s="18">
-        <f>AVERAGE(DATA!J12,DATA!J19,DATA!J26,DATA!J33)/100</f>
-        <v>10630966.050000001</v>
-      </c>
-      <c r="E3" s="18">
-        <f>AVERAGE(DATA!K12,DATA!K19,DATA!K26,DATA!K33)/100</f>
-        <v>37649432.299999997</v>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="7">
+        <f>(B3/B2)-1</f>
+        <v>9.1005607241208208E-2</v>
+      </c>
+      <c r="C4" s="7">
+        <f>(C3/C2)-1</f>
+        <v>0.31613418188431508</v>
       </c>
     </row>
   </sheetData>
@@ -9241,8 +9225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB95D9F3-7D9C-4FDE-B14D-23BCBCFA1056}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/meetrapporten/working/data.xlsx
+++ b/meetrapporten/working/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\Git\HU-Vision-1819-Base-FW-OF\meetrapporten\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350A9432-28B7-452F-B290-BD32EE6F687A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B144E9AA-386B-415B-B232-6F9F0664459C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{1C29CCC9-7210-421F-8AB7-A3C144CCE502}"/>
   </bookViews>

--- a/meetrapporten/working/data.xlsx
+++ b/meetrapporten/working/data.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\Git\HU-Vision-1819-Base-FW-OF\meetrapporten\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262E4FFA-7E0E-441D-BB2C-A735CCD84647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B144E9AA-386B-415B-B232-6F9F0664459C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-6150" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{1C29CCC9-7210-421F-8AB7-A3C144CCE502}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{1C29CCC9-7210-421F-8AB7-A3C144CCE502}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
+    <sheet name="DATA" sheetId="3" r:id="rId3"/>
+    <sheet name="Overall" sheetId="4" r:id="rId4"/>
+    <sheet name="Images" sheetId="5" r:id="rId5"/>
+    <sheet name="Per Pixel" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="38">
   <si>
     <t>Default</t>
   </si>
@@ -80,12 +84,127 @@
   <si>
     <t>10x per test</t>
   </si>
+  <si>
+    <t>Default Class</t>
+  </si>
+  <si>
+    <t>Student Class</t>
+  </si>
+  <si>
+    <t>Female-1</t>
+  </si>
+  <si>
+    <t>Male-4</t>
+  </si>
+  <si>
+    <t>Male-5</t>
+  </si>
+  <si>
+    <t>Optimalisatie O2</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geen optimalisatie </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Single-threading</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Multi-threading</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Every test is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> times pre-processing step 1</t>
+    </r>
+  </si>
+  <si>
+    <t>AVG Student Class</t>
+  </si>
+  <si>
+    <t>AVG Default Class</t>
+  </si>
+  <si>
+    <t>Animal-1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Animal is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> times pre-processing step 1</t>
+    </r>
+  </si>
+  <si>
+    <t>100 samples</t>
+  </si>
+  <si>
+    <t>10 samples</t>
+  </si>
+  <si>
+    <t>Optimization /O2</t>
+  </si>
+  <si>
+    <t>Disabled /Od</t>
+  </si>
+  <si>
+    <t>Verbetering in percentage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,8 +235,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,8 +284,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -218,12 +378,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -241,6 +443,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
@@ -402,6 +651,5610 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Pre-proccesing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> step 1 </a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overall!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG Student Class</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overall!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Optimization /O2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Disabled /Od</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overall!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8412612.9499999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27480603.800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77A0-4511-9A3B-F4F17AFDEB77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overall!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG Default Class</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overall!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Optimization /O2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Disabled /Od</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overall!$B$3:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9178207.9000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36168162</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-77A0-4511-9A3B-F4F17AFDEB77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="412379592"/>
+        <c:axId val="412380904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="412379592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412380904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="412380904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412379592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Student Class:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> T</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>ests</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> vs Images</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Images!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Images!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Female-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Images!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1456240.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1681179.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6435786.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24077245.600000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177465132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC3B-4FC8-9B74-536309095675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Images!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Images!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Female-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Images!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7003057</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5804563.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7980986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21455322.399999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70179042</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FC3B-4FC8-9B74-536309095675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Images!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Images!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Female-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Images!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6177917.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5779332.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19191965.199999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78773200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>418526988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FC3B-4FC8-9B74-536309095675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Images!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Images!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Female-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Images!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8104235.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8567724.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17153991.399999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53894704.399999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>147836456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FC3B-4FC8-9B74-536309095675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="485122128"/>
+        <c:axId val="485122784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="485122128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485122784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="485122784"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485122128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Default Class: Tests vs. Images</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Images!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Images!$G$4:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Images!$J$3:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6DB0-48A7-A34B-6E7A92A32B96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Images!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Images!$G$4:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Images!$H$4:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1426075.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7233783.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26253628</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>228688058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6DB0-48A7-A34B-6E7A92A32B96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Images!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Images!$G$4:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Images!$I$4:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6180649.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21419420.600000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111072773.59999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>556104290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6DB0-48A7-A34B-6E7A92A32B96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Images!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Images!$G$4:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Images!$K$3:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6DB0-48A7-A34B-6E7A92A32B96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="489051816"/>
+        <c:axId val="489051488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="489051816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489051488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="489051488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489051816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Student Class:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> T</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>ests</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> vs Images</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Pixel'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Pixel'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Female-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Pixel'!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>28.945342874180081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.301598257080609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.861865377565984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.920590743309191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.219528198242188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D88-4605-8D3C-C99E7BE990AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Pixel'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Pixel'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Female-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Pixel'!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>139.19811170741403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.16886100217866</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.712209035923756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.553452509374839</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.745755513509113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D88-4605-8D3C-C99E7BE990AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Pixel'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Pixel'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Female-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Pixel'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>122.79701451003777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.72910152505447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>109.92465405058651</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.16248009451893</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177.39486185709634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8D88-4605-8D3C-C99E7BE990AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Pixel'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Pixel'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Female-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Pixel'!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>161.08597495527729</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>149.32853333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.251875229105565</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.212904402321882</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.661258273654511</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8D88-4605-8D3C-C99E7BE990AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="485122128"/>
+        <c:axId val="485122784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="485122128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485122784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="485122784"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485122128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Default Class: Tests vs. Images</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Pixel'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Pixel'!$G$4:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Pixel'!$J$3:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EFB0-4648-A6B1-4F618BED845C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Pixel'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Pixel'!$G$4:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Pixel'!$H$4:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1426075.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7233783.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26253628</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>228688058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EFB0-4648-A6B1-4F618BED845C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Pixel'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Pixel'!$G$4:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Pixel'!$I$4:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6180649.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21419420.600000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111072773.59999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>556104290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EFB0-4648-A6B1-4F618BED845C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Per Pixel'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Pixel'!$G$4:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Pixel'!$K$3:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EFB0-4648-A6B1-4F618BED845C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="489051816"/>
+        <c:axId val="489051488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="489051816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489051488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="489051488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489051816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC6D29C3-61E1-4C70-8524-38D2E98B3B6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16838FB9-8526-4473-91D3-64D22EC92323}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>423861</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafiek 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC582B8-7326-4C66-B014-3C660594F248}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E1D5173-FE89-493E-8A5C-9B980ACC70CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>423861</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafiek 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F9EC68-168F-43EE-87FE-B5996FE0B257}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1281,7 +7134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55350843-7D6A-4CDE-BD3A-423253252E60}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -2100,4 +7953,1712 @@
     <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06918617-E87E-42D9-8CA3-6BB05D21E30B}">
+  <dimension ref="A1:K47"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="B43:C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="11" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="23">
+        <v>180864700</v>
+      </c>
+      <c r="C7" s="26">
+        <v>757285600</v>
+      </c>
+      <c r="D7" s="26">
+        <v>923948600</v>
+      </c>
+      <c r="E7" s="21">
+        <v>628110700</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="23">
+        <v>140393900</v>
+      </c>
+      <c r="I7" s="26">
+        <v>666056000</v>
+      </c>
+      <c r="J7" s="40">
+        <v>171586100</v>
+      </c>
+      <c r="K7" s="41">
+        <v>608881900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="23">
+        <v>162445400</v>
+      </c>
+      <c r="C8" s="26">
+        <v>640912900</v>
+      </c>
+      <c r="D8" s="26">
+        <v>598335200</v>
+      </c>
+      <c r="E8" s="21">
+        <v>1781656400</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="23">
+        <v>138415400</v>
+      </c>
+      <c r="I8" s="26">
+        <v>615432400</v>
+      </c>
+      <c r="J8" s="40">
+        <v>127781000</v>
+      </c>
+      <c r="K8" s="41">
+        <v>596482600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="23">
+        <v>161765500</v>
+      </c>
+      <c r="C9" s="26">
+        <v>517842800</v>
+      </c>
+      <c r="D9" s="26">
+        <v>569627700</v>
+      </c>
+      <c r="E9" s="21">
+        <v>700502000</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="23">
+        <v>153405800</v>
+      </c>
+      <c r="I9" s="26">
+        <v>592689300</v>
+      </c>
+      <c r="J9" s="40">
+        <v>133941200</v>
+      </c>
+      <c r="K9" s="41">
+        <v>591553100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="23">
+        <v>166638000</v>
+      </c>
+      <c r="C10" s="26">
+        <v>512369900</v>
+      </c>
+      <c r="D10" s="26">
+        <v>452688100</v>
+      </c>
+      <c r="E10" s="21">
+        <v>635744400</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="23">
+        <v>147653200</v>
+      </c>
+      <c r="I10" s="26">
+        <v>616219800</v>
+      </c>
+      <c r="J10" s="40">
+        <v>136991700</v>
+      </c>
+      <c r="K10" s="41">
+        <v>691582400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="35">
+        <v>168876000</v>
+      </c>
+      <c r="C11" s="35">
+        <v>461254900</v>
+      </c>
+      <c r="D11" s="35">
+        <v>357682100</v>
+      </c>
+      <c r="E11" s="36">
+        <v>537848800</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="35">
+        <v>133169400</v>
+      </c>
+      <c r="I11" s="35">
+        <v>599927200</v>
+      </c>
+      <c r="J11" s="42">
+        <v>120887900</v>
+      </c>
+      <c r="K11" s="43">
+        <v>581694700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="34">
+        <f>AVERAGE(B7:B11)</f>
+        <v>168117920</v>
+      </c>
+      <c r="C12" s="33">
+        <f>AVERAGE(C7:C11)</f>
+        <v>577933220</v>
+      </c>
+      <c r="D12" s="33">
+        <f>AVERAGE(D7:D11)</f>
+        <v>580456340</v>
+      </c>
+      <c r="E12" s="33">
+        <f>AVERAGE(E7:E11)</f>
+        <v>856772460</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="34">
+        <f>AVERAGE(H7:H11)</f>
+        <v>142607540</v>
+      </c>
+      <c r="I12" s="33">
+        <f>AVERAGE(I7:I11)</f>
+        <v>618064940</v>
+      </c>
+      <c r="J12" s="44">
+        <f>AVERAGE(J7:J11)</f>
+        <v>138237580</v>
+      </c>
+      <c r="K12" s="44">
+        <f>AVERAGE(K7:K11)</f>
+        <v>614038940</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="46"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="23">
+        <v>167878700</v>
+      </c>
+      <c r="C14" s="26">
+        <v>838774000</v>
+      </c>
+      <c r="D14" s="26">
+        <v>516363600</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1382683400</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="23">
+        <v>190057500</v>
+      </c>
+      <c r="I14" s="26">
+        <v>596530900</v>
+      </c>
+      <c r="J14" s="40">
+        <v>146188800</v>
+      </c>
+      <c r="K14" s="41">
+        <v>665690900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="23">
+        <v>149529500</v>
+      </c>
+      <c r="C15" s="26">
+        <v>665389600</v>
+      </c>
+      <c r="D15" s="26">
+        <v>1473162700</v>
+      </c>
+      <c r="E15" s="21">
+        <v>873731400</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="23">
+        <v>154147500</v>
+      </c>
+      <c r="I15" s="26">
+        <v>588577100</v>
+      </c>
+      <c r="J15" s="40">
+        <v>140799300</v>
+      </c>
+      <c r="K15" s="41">
+        <v>612049600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="23">
+        <v>137392500</v>
+      </c>
+      <c r="C16" s="26">
+        <v>586412900</v>
+      </c>
+      <c r="D16" s="26">
+        <v>693738200</v>
+      </c>
+      <c r="E16" s="21">
+        <v>552068300</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="23">
+        <v>210465100</v>
+      </c>
+      <c r="I16" s="26">
+        <v>605766700</v>
+      </c>
+      <c r="J16" s="40">
+        <v>147376500</v>
+      </c>
+      <c r="K16" s="41">
+        <v>599449100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="23">
+        <v>135789700</v>
+      </c>
+      <c r="C17" s="26">
+        <v>508044700</v>
+      </c>
+      <c r="D17" s="26">
+        <v>436786800</v>
+      </c>
+      <c r="E17" s="21">
+        <v>621217700</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="23">
+        <v>181499500</v>
+      </c>
+      <c r="I17" s="26">
+        <v>597299200</v>
+      </c>
+      <c r="J17" s="40">
+        <v>142773600</v>
+      </c>
+      <c r="K17" s="41">
+        <v>599529100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="35">
+        <v>137529700</v>
+      </c>
+      <c r="C18" s="35">
+        <v>490337700</v>
+      </c>
+      <c r="D18" s="35">
+        <v>381477200</v>
+      </c>
+      <c r="E18" s="36">
+        <v>622416900</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="35">
+        <v>163502900</v>
+      </c>
+      <c r="I18" s="35">
+        <v>611728300</v>
+      </c>
+      <c r="J18" s="42">
+        <v>135010100</v>
+      </c>
+      <c r="K18" s="43">
+        <v>598859600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="34">
+        <f>AVERAGE(B14:B18)</f>
+        <v>145624020</v>
+      </c>
+      <c r="C19" s="33">
+        <f>AVERAGE(C14:C18)</f>
+        <v>617791780</v>
+      </c>
+      <c r="D19" s="33">
+        <f>AVERAGE(D14:D18)</f>
+        <v>700305700</v>
+      </c>
+      <c r="E19" s="33">
+        <f>AVERAGE(E14:E18)</f>
+        <v>810423540</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="34">
+        <f>AVERAGE(H14:H18)</f>
+        <v>179934500</v>
+      </c>
+      <c r="I19" s="33">
+        <f>AVERAGE(I14:I18)</f>
+        <v>599980440</v>
+      </c>
+      <c r="J19" s="44">
+        <f>AVERAGE(J14:J18)</f>
+        <v>142429660</v>
+      </c>
+      <c r="K19" s="44">
+        <f>AVERAGE(K14:K18)</f>
+        <v>615115660</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="46"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="23">
+        <v>554010500</v>
+      </c>
+      <c r="C21" s="26">
+        <v>2110608100</v>
+      </c>
+      <c r="D21" s="26">
+        <v>1332333900</v>
+      </c>
+      <c r="E21" s="21">
+        <v>2454656800</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="23">
+        <v>1010417300</v>
+      </c>
+      <c r="I21" s="26">
+        <v>2150367500</v>
+      </c>
+      <c r="J21" s="40">
+        <v>547612600</v>
+      </c>
+      <c r="K21" s="41">
+        <v>2397398900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="23">
+        <v>525276400</v>
+      </c>
+      <c r="C22" s="26">
+        <v>2690071400</v>
+      </c>
+      <c r="D22" s="26">
+        <v>830082400</v>
+      </c>
+      <c r="E22" s="21">
+        <v>1484870600</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="23">
+        <v>694622800</v>
+      </c>
+      <c r="I22" s="26">
+        <v>2131887600</v>
+      </c>
+      <c r="J22" s="40">
+        <v>521526500</v>
+      </c>
+      <c r="K22" s="41">
+        <v>2350414100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="23">
+        <v>521435600</v>
+      </c>
+      <c r="C23" s="26">
+        <v>1668088900</v>
+      </c>
+      <c r="D23" s="26">
+        <v>648301600</v>
+      </c>
+      <c r="E23" s="21">
+        <v>1589449400</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="23">
+        <v>608576600</v>
+      </c>
+      <c r="I23" s="26">
+        <v>2168401800</v>
+      </c>
+      <c r="J23" s="40">
+        <v>514421200</v>
+      </c>
+      <c r="K23" s="41">
+        <v>2415177600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="23">
+        <v>652585400</v>
+      </c>
+      <c r="C24" s="26">
+        <v>1555005400</v>
+      </c>
+      <c r="D24" s="26">
+        <v>626913700</v>
+      </c>
+      <c r="E24" s="21">
+        <v>1532039500</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="23">
+        <v>617556300</v>
+      </c>
+      <c r="I24" s="26">
+        <v>2130157900</v>
+      </c>
+      <c r="J24" s="40">
+        <v>520361600</v>
+      </c>
+      <c r="K24" s="41">
+        <v>2330596600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="35">
+        <v>964585500</v>
+      </c>
+      <c r="C25" s="35">
+        <v>1572208800</v>
+      </c>
+      <c r="D25" s="35">
+        <v>552861400</v>
+      </c>
+      <c r="E25" s="36">
+        <v>1515979400</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="35">
+        <v>685718600</v>
+      </c>
+      <c r="I25" s="35">
+        <v>2128895500</v>
+      </c>
+      <c r="J25" s="42">
+        <v>522286100</v>
+      </c>
+      <c r="K25" s="43">
+        <v>2347866900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="34">
+        <f>AVERAGE(B21:B25)</f>
+        <v>643578680</v>
+      </c>
+      <c r="C26" s="33">
+        <f>AVERAGE(C21:C25)</f>
+        <v>1919196520</v>
+      </c>
+      <c r="D26" s="33">
+        <f>AVERAGE(D21:D25)</f>
+        <v>798098600</v>
+      </c>
+      <c r="E26" s="33">
+        <f>AVERAGE(E21:E25)</f>
+        <v>1715399140</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="34">
+        <f>AVERAGE(H21:H25)</f>
+        <v>723378320</v>
+      </c>
+      <c r="I26" s="33">
+        <f>AVERAGE(I21:I25)</f>
+        <v>2141942060</v>
+      </c>
+      <c r="J26" s="44">
+        <f>AVERAGE(J21:J25)</f>
+        <v>525241600</v>
+      </c>
+      <c r="K26" s="44">
+        <f>AVERAGE(K21:K25)</f>
+        <v>2368290820</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="46"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="23">
+        <v>3210855600</v>
+      </c>
+      <c r="C28" s="26">
+        <v>7843665100</v>
+      </c>
+      <c r="D28" s="26">
+        <v>2407670200</v>
+      </c>
+      <c r="E28" s="21">
+        <v>5268675400</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="23">
+        <v>2661443100</v>
+      </c>
+      <c r="I28" s="26">
+        <v>11317604700</v>
+      </c>
+      <c r="J28" s="40">
+        <v>3976731000</v>
+      </c>
+      <c r="K28" s="41">
+        <v>12656880100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="23">
+        <v>2655215000</v>
+      </c>
+      <c r="C29" s="26">
+        <v>7286609500</v>
+      </c>
+      <c r="D29" s="26">
+        <v>3162210900</v>
+      </c>
+      <c r="E29" s="21">
+        <v>4508212100</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="23">
+        <v>2609242900</v>
+      </c>
+      <c r="I29" s="26">
+        <v>10910300900</v>
+      </c>
+      <c r="J29" s="40">
+        <v>3093491000</v>
+      </c>
+      <c r="K29" s="41">
+        <v>10865316000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="23">
+        <v>2072083100</v>
+      </c>
+      <c r="C30" s="26">
+        <v>7370217900</v>
+      </c>
+      <c r="D30" s="26">
+        <v>1775859300</v>
+      </c>
+      <c r="E30" s="21">
+        <v>5681585000</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="23">
+        <v>2586306600</v>
+      </c>
+      <c r="I30" s="26">
+        <v>11172444900</v>
+      </c>
+      <c r="J30" s="40">
+        <v>3449024000</v>
+      </c>
+      <c r="K30" s="41">
+        <v>10810085100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="23">
+        <v>2053688000</v>
+      </c>
+      <c r="C31" s="26">
+        <v>8442621900</v>
+      </c>
+      <c r="D31" s="26">
+        <v>1694748200</v>
+      </c>
+      <c r="E31" s="21">
+        <v>5773553800</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="23">
+        <v>2598502300</v>
+      </c>
+      <c r="I31" s="26">
+        <v>11316889500</v>
+      </c>
+      <c r="J31" s="40">
+        <v>2901972200</v>
+      </c>
+      <c r="K31" s="41">
+        <v>12144728100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="35">
+        <v>2046781100</v>
+      </c>
+      <c r="C32" s="35">
+        <v>8443485600</v>
+      </c>
+      <c r="D32" s="35">
+        <v>1687172600</v>
+      </c>
+      <c r="E32" s="36">
+        <v>5715325900</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="35">
+        <v>2671319100</v>
+      </c>
+      <c r="I32" s="35">
+        <v>10819146800</v>
+      </c>
+      <c r="J32" s="42">
+        <v>3811169700</v>
+      </c>
+      <c r="K32" s="43">
+        <v>10834628200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="34">
+        <f>AVERAGE(B28:B32)</f>
+        <v>2407724560</v>
+      </c>
+      <c r="C33" s="33">
+        <f>AVERAGE(C28:C32)</f>
+        <v>7877320000</v>
+      </c>
+      <c r="D33" s="33">
+        <f>AVERAGE(D28:D32)</f>
+        <v>2145532240</v>
+      </c>
+      <c r="E33" s="33">
+        <f>AVERAGE(E28:E32)</f>
+        <v>5389470440</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="34">
+        <f>AVERAGE(H28:H32)</f>
+        <v>2625362800</v>
+      </c>
+      <c r="I33" s="33">
+        <f>AVERAGE(I28:I32)</f>
+        <v>11107277360</v>
+      </c>
+      <c r="J33" s="44">
+        <f>AVERAGE(J28:J32)</f>
+        <v>3446477580</v>
+      </c>
+      <c r="K33" s="44">
+        <f>AVERAGE(K28:K32)</f>
+        <v>11462327500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="46"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="23">
+        <v>1895250800</v>
+      </c>
+      <c r="C35" s="26">
+        <v>4759066600</v>
+      </c>
+      <c r="D35" s="26">
+        <v>1381439900</v>
+      </c>
+      <c r="E35" s="21">
+        <v>1612830200</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="23">
+        <v>2254591300</v>
+      </c>
+      <c r="I35" s="26">
+        <v>5506063300</v>
+      </c>
+      <c r="J35" s="40">
+        <v>2093953200</v>
+      </c>
+      <c r="K35" s="41">
+        <v>5723281600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="23">
+        <v>1732424600</v>
+      </c>
+      <c r="C36" s="26">
+        <v>3879787000</v>
+      </c>
+      <c r="D36" s="26">
+        <v>607916400</v>
+      </c>
+      <c r="E36" s="21">
+        <v>1406701700</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="23">
+        <v>2235737500</v>
+      </c>
+      <c r="I36" s="26">
+        <v>5652737500</v>
+      </c>
+      <c r="J36" s="40">
+        <v>2108519000</v>
+      </c>
+      <c r="K36" s="41">
+        <v>5389355100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="23">
+        <v>1775494200</v>
+      </c>
+      <c r="C37" s="26">
+        <v>4881481400</v>
+      </c>
+      <c r="D37" s="26">
+        <v>519001100</v>
+      </c>
+      <c r="E37" s="21">
+        <v>1428850700</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="23">
+        <v>2259621900</v>
+      </c>
+      <c r="I37" s="26">
+        <v>5784283300</v>
+      </c>
+      <c r="J37" s="40">
+        <v>2158513900</v>
+      </c>
+      <c r="K37" s="41">
+        <v>5657967500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="23">
+        <v>1735468700</v>
+      </c>
+      <c r="C38" s="26">
+        <v>3569592900</v>
+      </c>
+      <c r="D38" s="26">
+        <v>502822900</v>
+      </c>
+      <c r="E38" s="21">
+        <v>1451189400</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="23">
+        <v>2255840300</v>
+      </c>
+      <c r="I38" s="26">
+        <v>5447923700</v>
+      </c>
+      <c r="J38" s="40">
+        <v>2340664600</v>
+      </c>
+      <c r="K38" s="41">
+        <v>5675543200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="35">
+        <v>1734618300</v>
+      </c>
+      <c r="C39" s="35">
+        <v>3836421500</v>
+      </c>
+      <c r="D39" s="35">
+        <v>497771800</v>
+      </c>
+      <c r="E39" s="36">
+        <v>1492250800</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="35">
+        <v>2428611900</v>
+      </c>
+      <c r="I39" s="35">
+        <v>5414206700</v>
+      </c>
+      <c r="J39" s="42">
+        <v>2188425000</v>
+      </c>
+      <c r="K39" s="43">
+        <v>5816413900</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="34">
+        <f>AVERAGE(B35:B39)</f>
+        <v>1774651320</v>
+      </c>
+      <c r="C40" s="33">
+        <f>AVERAGE(C35:C39)</f>
+        <v>4185269880</v>
+      </c>
+      <c r="D40" s="33">
+        <f>AVERAGE(D35:D39)</f>
+        <v>701790420</v>
+      </c>
+      <c r="E40" s="33">
+        <f>AVERAGE(E35:E39)</f>
+        <v>1478364560</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="34">
+        <f>AVERAGE(H35:H39)</f>
+        <v>2286880580</v>
+      </c>
+      <c r="I40" s="33">
+        <f>AVERAGE(I35:I39)</f>
+        <v>5561042900</v>
+      </c>
+      <c r="J40" s="44">
+        <f>AVERAGE(J35:J39)</f>
+        <v>2178015140</v>
+      </c>
+      <c r="K40" s="44">
+        <f>AVERAGE(K35:K39)</f>
+        <v>5652512260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="47">
+        <v>57375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="47">
+        <v>50310</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="47">
+        <v>174592</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="47">
+        <v>778680</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="47">
+        <v>2359296</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="G35:G40"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="G21:G26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18C5A61-2BE1-4907-AEE6-E784A8291BE0}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="24"/>
+      <c r="B1" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="18">
+        <f>AVERAGE(DATA!B12,DATA!B19,DATA!B26,DATA!B33)/100</f>
+        <v>8412612.9499999993</v>
+      </c>
+      <c r="C2" s="18">
+        <f>AVERAGE(DATA!C12,DATA!C19,DATA!C26,DATA!C33)/100</f>
+        <v>27480603.800000001</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="18">
+        <f>AVERAGE(DATA!H12,DATA!H19,DATA!H26,DATA!H33)/100</f>
+        <v>9178207.9000000004</v>
+      </c>
+      <c r="C3" s="18">
+        <f>AVERAGE(DATA!I12,DATA!I19,DATA!I26,DATA!I33)/100</f>
+        <v>36168162</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="7">
+        <f>(B3/B2)-1</f>
+        <v>9.1005607241208208E-2</v>
+      </c>
+      <c r="C4" s="7">
+        <f>(C3/C2)-1</f>
+        <v>0.31613418188431508</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB95D9F3-7D9C-4FDE-B14D-23BCBCFA1056}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="11" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="30">
+        <f>DATA!B19/100</f>
+        <v>1456240.2</v>
+      </c>
+      <c r="C3" s="30">
+        <f>DATA!C19/100</f>
+        <v>6177917.7999999998</v>
+      </c>
+      <c r="D3" s="30">
+        <f>DATA!D19/100</f>
+        <v>7003057</v>
+      </c>
+      <c r="E3" s="30">
+        <f>DATA!E19/100</f>
+        <v>8104235.4000000004</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="30">
+        <f>DATA!H19/100</f>
+        <v>1799345</v>
+      </c>
+      <c r="I3" s="30">
+        <f>DATA!I19/100</f>
+        <v>5999804.4000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="30">
+        <f>DATA!B12/100</f>
+        <v>1681179.2</v>
+      </c>
+      <c r="C4" s="30">
+        <f>DATA!C12/100</f>
+        <v>5779332.2000000002</v>
+      </c>
+      <c r="D4" s="30">
+        <f>DATA!D12/100</f>
+        <v>5804563.4000000004</v>
+      </c>
+      <c r="E4" s="30">
+        <f>DATA!E12/100</f>
+        <v>8567724.5999999996</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="30">
+        <f>DATA!H12/100</f>
+        <v>1426075.4</v>
+      </c>
+      <c r="I4" s="30">
+        <f>DATA!I12/100</f>
+        <v>6180649.4000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="30">
+        <f>DATA!B26/100</f>
+        <v>6435786.7999999998</v>
+      </c>
+      <c r="C5" s="30">
+        <f>DATA!C26/100</f>
+        <v>19191965.199999999</v>
+      </c>
+      <c r="D5" s="30">
+        <f>DATA!D26/100</f>
+        <v>7980986</v>
+      </c>
+      <c r="E5" s="30">
+        <f>DATA!E26/100</f>
+        <v>17153991.399999999</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="30">
+        <f>DATA!H26/100</f>
+        <v>7233783.2000000002</v>
+      </c>
+      <c r="I5" s="30">
+        <f>DATA!I26/100</f>
+        <v>21419420.600000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="30">
+        <f>DATA!B33/100</f>
+        <v>24077245.600000001</v>
+      </c>
+      <c r="C6" s="30">
+        <f>DATA!C33/100</f>
+        <v>78773200</v>
+      </c>
+      <c r="D6" s="30">
+        <f>DATA!D33/100</f>
+        <v>21455322.399999999</v>
+      </c>
+      <c r="E6" s="30">
+        <f>DATA!E33/100</f>
+        <v>53894704.399999999</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="30">
+        <f>DATA!H33/100</f>
+        <v>26253628</v>
+      </c>
+      <c r="I6" s="30">
+        <f>DATA!I33/100</f>
+        <v>111072773.59999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="30">
+        <f>DATA!B40/10</f>
+        <v>177465132</v>
+      </c>
+      <c r="C7" s="30">
+        <f>DATA!C40/10</f>
+        <v>418526988</v>
+      </c>
+      <c r="D7" s="30">
+        <f>DATA!D40/10</f>
+        <v>70179042</v>
+      </c>
+      <c r="E7" s="30">
+        <f>DATA!E40/10</f>
+        <v>147836456</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="30">
+        <f>DATA!H40/10</f>
+        <v>228688058</v>
+      </c>
+      <c r="I7" s="30">
+        <f>DATA!I40/10</f>
+        <v>556104290</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D2FBC4-1CAA-4947-BA92-D277B849FA05}">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="11" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="30">
+        <f>(DATA!B19/100)/L3</f>
+        <v>28.945342874180081</v>
+      </c>
+      <c r="C3" s="30">
+        <f>(DATA!C19/100)/L3</f>
+        <v>122.79701451003777</v>
+      </c>
+      <c r="D3" s="30">
+        <f>(DATA!D19/100)/L3</f>
+        <v>139.19811170741403</v>
+      </c>
+      <c r="E3" s="30">
+        <f>(DATA!E19/100)/L3</f>
+        <v>161.08597495527729</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="30">
+        <f>DATA!H19/100</f>
+        <v>1799345</v>
+      </c>
+      <c r="I3" s="30">
+        <f>DATA!I19/100</f>
+        <v>5999804.4000000004</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="47">
+        <v>50310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="30">
+        <f>(DATA!B12/100)/L4</f>
+        <v>29.301598257080609</v>
+      </c>
+      <c r="C4" s="30">
+        <f>(DATA!C12/100)/L4</f>
+        <v>100.72910152505447</v>
+      </c>
+      <c r="D4" s="30">
+        <f>(DATA!D12/100)/L4</f>
+        <v>101.16886100217866</v>
+      </c>
+      <c r="E4" s="30">
+        <f>(DATA!E12/100)/L4</f>
+        <v>149.32853333333333</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="30">
+        <f>DATA!H12/100</f>
+        <v>1426075.4</v>
+      </c>
+      <c r="I4" s="30">
+        <f>DATA!I12/100</f>
+        <v>6180649.4000000004</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="47">
+        <v>57375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="30">
+        <f>(DATA!B26/100)/L5</f>
+        <v>36.861865377565984</v>
+      </c>
+      <c r="C5" s="30">
+        <f>(DATA!C26/100)/L5</f>
+        <v>109.92465405058651</v>
+      </c>
+      <c r="D5" s="30">
+        <f>(DATA!D26/100)/L5</f>
+        <v>45.712209035923756</v>
+      </c>
+      <c r="E5" s="30">
+        <f>(DATA!E26/100)/L5</f>
+        <v>98.251875229105565</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="30">
+        <f>DATA!H26/100</f>
+        <v>7233783.2000000002</v>
+      </c>
+      <c r="I5" s="30">
+        <f>DATA!I26/100</f>
+        <v>21419420.600000001</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="47">
+        <v>174592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="30">
+        <f>(DATA!B33/100)/L6</f>
+        <v>30.920590743309191</v>
+      </c>
+      <c r="C6" s="30">
+        <f>(DATA!C33/100)/L6</f>
+        <v>101.16248009451893</v>
+      </c>
+      <c r="D6" s="30">
+        <f>(DATA!D33/100)/L6</f>
+        <v>27.553452509374839</v>
+      </c>
+      <c r="E6" s="30">
+        <f>(DATA!E33/100)/L6</f>
+        <v>69.212904402321882</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="30">
+        <f>DATA!H33/100</f>
+        <v>26253628</v>
+      </c>
+      <c r="I6" s="30">
+        <f>DATA!I33/100</f>
+        <v>111072773.59999999</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="47">
+        <v>778680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="30">
+        <f>(DATA!B40/10)/L7</f>
+        <v>75.219528198242188</v>
+      </c>
+      <c r="C7" s="30">
+        <f>(DATA!C40/10)/L7</f>
+        <v>177.39486185709634</v>
+      </c>
+      <c r="D7" s="30">
+        <f>(DATA!D40/10)/L7</f>
+        <v>29.745755513509113</v>
+      </c>
+      <c r="E7" s="30">
+        <f>(DATA!E40/10)/L7</f>
+        <v>62.661258273654511</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="30">
+        <f>DATA!H40/10</f>
+        <v>228688058</v>
+      </c>
+      <c r="I7" s="30">
+        <f>DATA!I40/10</f>
+        <v>556104290</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="47">
+        <v>2359296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/meetrapporten/working/data.xlsx
+++ b/meetrapporten/working/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\Git\HU-Vision-1819-Base-FW-OF\meetrapporten\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B144E9AA-386B-415B-B232-6F9F0664459C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632FF699-95F8-4524-85C0-944D2D7451E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{1C29CCC9-7210-421F-8AB7-A3C144CCE502}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{1C29CCC9-7210-421F-8AB7-A3C144CCE502}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="41">
   <si>
     <t>Default</t>
   </si>
@@ -103,6 +103,9 @@
     <t>Optimalisatie O2</t>
   </si>
   <si>
+    <t>Geen Optimalisatie</t>
+  </si>
+  <si>
     <t>OS</t>
   </si>
   <si>
@@ -150,12 +153,6 @@
     </r>
   </si>
   <si>
-    <t>AVG Student Class</t>
-  </si>
-  <si>
-    <t>AVG Default Class</t>
-  </si>
-  <si>
     <t>Animal-1</t>
   </si>
   <si>
@@ -194,10 +191,22 @@
     <t>Optimization /O2</t>
   </si>
   <si>
-    <t>Disabled /Od</t>
+    <t>Verbetering in percentage</t>
   </si>
   <si>
-    <t>Verbetering in percentage</t>
+    <t>Student DS</t>
+  </si>
+  <si>
+    <t>Default DS</t>
+  </si>
+  <si>
+    <t>Verbetering</t>
+  </si>
+  <si>
+    <t>Student O2S</t>
+  </si>
+  <si>
+    <t>Default O2S</t>
   </si>
 </sst>
 </file>
@@ -253,7 +262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,6 +308,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,7 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -456,8 +471,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -490,6 +505,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
@@ -687,14 +707,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="nl-NL"/>
-              <a:t>Pre-proccesing</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Student</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="nl-NL" baseline="0"/>
-              <a:t> step 1 </a:t>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. default klassen</a:t>
             </a:r>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -743,7 +763,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AVG Student Class</c:v>
+                  <c:v>Student</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -767,7 +787,7 @@
                   <c:v>Optimization /O2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Disabled /Od</c:v>
+                  <c:v>Geen Optimalisatie</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -776,7 +796,7 @@
             <c:numRef>
               <c:f>Overall!$B$2:$C$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>8412612.9499999993</c:v>
@@ -802,7 +822,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AVG Default Class</c:v>
+                  <c:v>Default</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -826,7 +846,7 @@
                   <c:v>Optimization /O2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Disabled /Od</c:v>
+                  <c:v>Geen Optimalisatie</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -835,7 +855,7 @@
             <c:numRef>
               <c:f>Overall!$B$3:$C$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>9178207.9000000004</c:v>
@@ -1082,6 +1102,961 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t>Verschil per</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t> afbeelding </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>(Geen Optimalisatie)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overall!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Student DS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overall!$G$2:$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Female-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overall!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6177917.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5779332.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19191965.199999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78773200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>418526988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76E7-46D6-A727-F1D6A5CC2DF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overall!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default DS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overall!$G$2:$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Female-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overall!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5999804.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6180649.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21419420.600000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111072773.59999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>556104290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-76E7-46D6-A727-F1D6A5CC2DF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="414975640"/>
+        <c:axId val="414974984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="414975640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414974984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="414974984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414975640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overall!$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Student O2S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overall!$G$9:$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Female-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overall!$H$9:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1456240.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1681179.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6435786.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24077245.600000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17746513.199999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C14B-456E-AEBF-92D706178443}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overall!$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default O2S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overall!$G$9:$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Female-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Child-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Animal-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overall!$I$9:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1799345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1426075.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7233783.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111072773.59999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55610429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C14B-456E-AEBF-92D706178443}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="485124096"/>
+        <c:axId val="485126392"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Overall!$J$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Verbetering</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Overall!$G$9:$G$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Female-1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Child-1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Male-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Male-5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Animal-1</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Overall!$J$9:$J$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0.23561003191643803</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-0.15174099227494608</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.123993604014353</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.6131843918226254</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.1335974776160538</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-C14B-456E-AEBF-92D706178443}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="485124096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485126392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="485126392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485124096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="nl-NL"/>
               <a:t>Student Class:</a:t>
             </a:r>
@@ -1653,7 +2628,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
@@ -2187,7 +3162,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
@@ -2791,7 +3766,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
@@ -3537,6 +4512,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4544,7 +5599,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4652,6 +5707,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4662,6 +5722,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4693,6 +5758,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6052,20 +7120,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6087,6 +8161,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAD0BF7B-4065-42B9-99CB-9EB6855C2B0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafiek 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC94DB72-8EA4-4775-8E1F-97058DDFE80A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7959,8 +10105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06918617-E87E-42D9-8CA3-6BB05D21E30B}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="B43:C47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7978,59 +10124,59 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
       <c r="I1" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" s="28"/>
       <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
       <c r="I2" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -8043,13 +10189,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -8080,30 +10226,30 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="24"/>
       <c r="H6" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -8904,7 +11050,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="23">
         <v>1895250800</v>
@@ -8920,7 +11066,7 @@
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H35" s="23">
         <v>2254591300</v>
@@ -9071,7 +11217,7 @@
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="34">
+      <c r="H40" s="52">
         <f>AVERAGE(H35:H39)</f>
         <v>2286880580</v>
       </c>
@@ -9122,7 +11268,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C47" s="47">
         <v>2359296</v>
@@ -9148,10 +11294,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18C5A61-2BE1-4907-AEE6-E784A8291BE0}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9159,60 +11305,251 @@
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="24"/>
       <c r="B1" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="32"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="48">
         <f>AVERAGE(DATA!B12,DATA!B19,DATA!B26,DATA!B33)/100</f>
         <v>8412612.9499999993</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="48">
         <f>AVERAGE(DATA!C12,DATA!C19,DATA!C26,DATA!C33)/100</f>
         <v>27480603.800000001</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
+      <c r="G2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="51">
+        <f>DATA!C19/100</f>
+        <v>6177917.7999999998</v>
+      </c>
+      <c r="I2" s="51">
+        <f>DATA!I19/100</f>
+        <v>5999804.4000000004</v>
+      </c>
+      <c r="J2" s="50">
+        <f>(I2/H2)-1</f>
+        <v>-2.8830652295179338E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="18">
+        <v>0</v>
+      </c>
+      <c r="B3" s="48">
         <f>AVERAGE(DATA!H12,DATA!H19,DATA!H26,DATA!H33)/100</f>
         <v>9178207.9000000004</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="48">
         <f>AVERAGE(DATA!I12,DATA!I19,DATA!I26,DATA!I33)/100</f>
         <v>36168162</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
+      <c r="G3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="51">
+        <f>DATA!C12/100</f>
+        <v>5779332.2000000002</v>
+      </c>
+      <c r="I3" s="51">
+        <f>DATA!I12/100</f>
+        <v>6180649.4000000004</v>
+      </c>
+      <c r="J3" s="50">
+        <f t="shared" ref="J3:J6" si="0">(I3/H3)-1</f>
+        <v>6.9440064372835453E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="7">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="49">
         <f>(B3/B2)-1</f>
         <v>9.1005607241208208E-2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="49">
         <f>(C3/C2)-1</f>
         <v>0.31613418188431508</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="51">
+        <f>DATA!C26/100</f>
+        <v>19191965.199999999</v>
+      </c>
+      <c r="I4" s="51">
+        <f>DATA!I26/100</f>
+        <v>21419420.600000001</v>
+      </c>
+      <c r="J4" s="50">
+        <f t="shared" si="0"/>
+        <v>0.11606187155862502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="51">
+        <f>DATA!C33/100</f>
+        <v>78773200</v>
+      </c>
+      <c r="I5" s="51">
+        <f>DATA!I33/100</f>
+        <v>111072773.59999999</v>
+      </c>
+      <c r="J5" s="50">
+        <f>(I5/H5)-1</f>
+        <v>0.41003251867386359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="51">
+        <f>DATA!C40/10</f>
+        <v>418526988</v>
+      </c>
+      <c r="I6" s="51">
+        <f>DATA!I40/10</f>
+        <v>556104290</v>
+      </c>
+      <c r="J6" s="50">
+        <f t="shared" si="0"/>
+        <v>0.32871787470011382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G8" s="20"/>
+      <c r="H8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="51">
+        <f>DATA!B19/100</f>
+        <v>1456240.2</v>
+      </c>
+      <c r="I9" s="51">
+        <f>DATA!H19/100</f>
+        <v>1799345</v>
+      </c>
+      <c r="J9" s="50">
+        <f>(I9/H9)-1</f>
+        <v>0.23561003191643803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="51">
+        <f>DATA!B12/100</f>
+        <v>1681179.2</v>
+      </c>
+      <c r="I10" s="51">
+        <f>DATA!H12/100</f>
+        <v>1426075.4</v>
+      </c>
+      <c r="J10" s="50">
+        <f t="shared" ref="J10:J13" si="1">(I10/H10)-1</f>
+        <v>-0.15174099227494608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="51">
+        <f>DATA!B26/100</f>
+        <v>6435786.7999999998</v>
+      </c>
+      <c r="I11" s="51">
+        <f>DATA!H26/100</f>
+        <v>7233783.2000000002</v>
+      </c>
+      <c r="J11" s="50">
+        <f t="shared" si="1"/>
+        <v>0.123993604014353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="51">
+        <f>DATA!B33/100</f>
+        <v>24077245.600000001</v>
+      </c>
+      <c r="I12" s="51">
+        <f>DATA!I33/100</f>
+        <v>111072773.59999999</v>
+      </c>
+      <c r="J12" s="50">
+        <f t="shared" si="1"/>
+        <v>3.6131843918226254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="51">
+        <f>DATA!B40/100</f>
+        <v>17746513.199999999</v>
+      </c>
+      <c r="I13" s="51">
+        <f>DATA!I40/100</f>
+        <v>55610429</v>
+      </c>
+      <c r="J13" s="50">
+        <f t="shared" si="1"/>
+        <v>2.1335974776160538</v>
       </c>
     </row>
   </sheetData>
@@ -9225,7 +11562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB95D9F3-7D9C-4FDE-B14D-23BCBCFA1056}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -9242,22 +11579,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="I2" s="31" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -9390,7 +11727,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="30">
         <f>DATA!B40/10</f>
@@ -9409,7 +11746,7 @@
         <v>147836456</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="30">
         <f>DATA!H40/10</f>
@@ -9432,7 +11769,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9448,22 +11785,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="I2" s="31" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -9620,7 +11957,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="30">
         <f>(DATA!B40/10)/L7</f>
@@ -9639,7 +11976,7 @@
         <v>62.661258273654511</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="30">
         <f>DATA!H40/10</f>
@@ -9650,7 +11987,7 @@
         <v>556104290</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" s="47">
         <v>2359296</v>

--- a/meetrapporten/working/data.xlsx
+++ b/meetrapporten/working/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\Git\HU-Vision-1819-Base-FW-OF\meetrapporten\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632FF699-95F8-4524-85C0-944D2D7451E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188E1F84-100B-4BAC-B58C-31E08E40F319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{1C29CCC9-7210-421F-8AB7-A3C144CCE502}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{1C29CCC9-7210-421F-8AB7-A3C144CCE502}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="43">
   <si>
     <t>Default</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>Default O2S</t>
+  </si>
+  <si>
+    <t>Verbetering O2S</t>
+  </si>
+  <si>
+    <t>Verbetering DS</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -510,6 +516,11 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
@@ -1153,9 +1164,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1172,15 +1182,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Overall!$G$2:$G$6</c:f>
@@ -1228,6 +1240,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-76E7-46D6-A727-F1D6A5CC2DF3}"/>
@@ -1249,15 +1262,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Overall!$G$2:$G$6</c:f>
@@ -1305,6 +1320,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-76E7-46D6-A727-F1D6A5CC2DF3}"/>
@@ -1319,11 +1335,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:smooth val="0"/>
         <c:axId val="414975640"/>
         <c:axId val="414974984"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="414975640"/>
         <c:scaling>
@@ -1522,6 +1537,45 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Verschil</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> per afbeelding</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t>(Optimalisatie /O2)</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1562,7 +1616,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overall!$H$8</c:f>
+              <c:f>Overall!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1608,7 +1662,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overall!$H$9:$H$13</c:f>
+              <c:f>Overall!$J$2:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1625,7 +1679,7 @@
                   <c:v>24077245.600000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17746513.199999999</c:v>
+                  <c:v>177465132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1642,7 +1696,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overall!$I$8</c:f>
+              <c:f>Overall!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1688,7 +1742,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overall!$I$9:$I$13</c:f>
+              <c:f>Overall!$K$2:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1702,10 +1756,10 @@
                   <c:v>7233783.2000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111072773.59999999</c:v>
+                  <c:v>26253628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55610429</c:v>
+                  <c:v>228688058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1814,10 +1868,10 @@
                         <c:v>0.123993604014353</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3.6131843918226254</c:v>
+                        <c:v>9.0391668389178115E-2</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>2.1335974776160538</c:v>
+                        <c:v>0.28863656439282948</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8168,16 +8222,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>566737</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8204,16 +8258,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10105,8 +10159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06918617-E87E-42D9-8CA3-6BB05D21E30B}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10256,7 +10310,7 @@
       <c r="A7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="55">
         <v>180864700</v>
       </c>
       <c r="C7" s="26">
@@ -11234,6 +11288,16 @@
         <v>5652512260</v>
       </c>
     </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+    </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="20" t="s">
         <v>9</v>
@@ -11257,6 +11321,10 @@
       <c r="C45" s="47">
         <v>174592</v>
       </c>
+      <c r="D45">
+        <f>C40/100000000</f>
+        <v>41.852698799999999</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" s="20" t="s">
@@ -11264,6 +11332,10 @@
       </c>
       <c r="C46" s="47">
         <v>778680</v>
+      </c>
+      <c r="D46">
+        <f>C12/100000000</f>
+        <v>5.7793321999999998</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -11294,10 +11366,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18C5A61-2BE1-4907-AEE6-E784A8291BE0}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11308,11 +11380,12 @@
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="10" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="24"/>
       <c r="B1" s="30" t="s">
         <v>34</v>
@@ -11323,17 +11396,26 @@
       <c r="D1" s="31"/>
       <c r="E1" s="32"/>
       <c r="G1" s="20"/>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="20" t="s">
-        <v>38</v>
+      <c r="J1" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="54" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
@@ -11358,12 +11440,24 @@
         <f>DATA!I19/100</f>
         <v>5999804.4000000004</v>
       </c>
-      <c r="J2" s="50">
+      <c r="J2" s="51">
+        <f>DATA!B19/100</f>
+        <v>1456240.2</v>
+      </c>
+      <c r="K2" s="51">
+        <f>DATA!H19/100</f>
+        <v>1799345</v>
+      </c>
+      <c r="L2" s="50">
+        <f>(K2/J2)-1</f>
+        <v>0.23561003191643803</v>
+      </c>
+      <c r="M2" s="50">
         <f>(I2/H2)-1</f>
         <v>-2.8830652295179338E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
@@ -11388,12 +11482,24 @@
         <f>DATA!I12/100</f>
         <v>6180649.4000000004</v>
       </c>
-      <c r="J3" s="50">
-        <f t="shared" ref="J3:J6" si="0">(I3/H3)-1</f>
+      <c r="J3" s="51">
+        <f>DATA!B12/100</f>
+        <v>1681179.2</v>
+      </c>
+      <c r="K3" s="51">
+        <f>DATA!H12/100</f>
+        <v>1426075.4</v>
+      </c>
+      <c r="L3" s="50">
+        <f t="shared" ref="L3:L6" si="0">(K3/J3)-1</f>
+        <v>-0.15174099227494608</v>
+      </c>
+      <c r="M3" s="50">
+        <f>(I3/H3)-1</f>
         <v>6.9440064372835453E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>35</v>
       </c>
@@ -11416,12 +11522,24 @@
         <f>DATA!I26/100</f>
         <v>21419420.600000001</v>
       </c>
-      <c r="J4" s="50">
+      <c r="J4" s="51">
+        <f>DATA!B26/100</f>
+        <v>6435786.7999999998</v>
+      </c>
+      <c r="K4" s="51">
+        <f>DATA!H26/100</f>
+        <v>7233783.2000000002</v>
+      </c>
+      <c r="L4" s="50">
         <f t="shared" si="0"/>
+        <v>0.123993604014353</v>
+      </c>
+      <c r="M4" s="50">
+        <f>(I4/H4)-1</f>
         <v>0.11606187155862502</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G5" s="20" t="s">
         <v>19</v>
       </c>
@@ -11433,12 +11551,24 @@
         <f>DATA!I33/100</f>
         <v>111072773.59999999</v>
       </c>
-      <c r="J5" s="50">
+      <c r="J5" s="51">
+        <f>DATA!B33/100</f>
+        <v>24077245.600000001</v>
+      </c>
+      <c r="K5" s="51">
+        <f>DATA!H33/100</f>
+        <v>26253628</v>
+      </c>
+      <c r="L5" s="50">
+        <f t="shared" si="0"/>
+        <v>9.0391668389178115E-2</v>
+      </c>
+      <c r="M5" s="50">
         <f>(I5/H5)-1</f>
         <v>0.41003251867386359</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G6" s="20" t="s">
         <v>30</v>
       </c>
@@ -11450,106 +11580,72 @@
         <f>DATA!I40/10</f>
         <v>556104290</v>
       </c>
-      <c r="J6" s="50">
+      <c r="J6" s="51">
+        <f>DATA!B40/10</f>
+        <v>177465132</v>
+      </c>
+      <c r="K6" s="51">
+        <f>DATA!H40/10</f>
+        <v>228688058</v>
+      </c>
+      <c r="L6" s="50">
         <f t="shared" si="0"/>
+        <v>0.28863656439282948</v>
+      </c>
+      <c r="M6" s="50">
+        <f>(I6/H6)-1</f>
         <v>0.32871787470011382</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G8" s="20"/>
-      <c r="H8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>40</v>
-      </c>
       <c r="J8" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="51">
-        <f>DATA!B19/100</f>
-        <v>1456240.2</v>
-      </c>
-      <c r="I9" s="51">
-        <f>DATA!H19/100</f>
-        <v>1799345</v>
-      </c>
       <c r="J9" s="50">
-        <f>(I9/H9)-1</f>
+        <f>(K2/J2)-1</f>
         <v>0.23561003191643803</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="51">
-        <f>DATA!B12/100</f>
-        <v>1681179.2</v>
-      </c>
-      <c r="I10" s="51">
-        <f>DATA!H12/100</f>
-        <v>1426075.4</v>
-      </c>
       <c r="J10" s="50">
-        <f t="shared" ref="J10:J13" si="1">(I10/H10)-1</f>
+        <f>(K3/J3)-1</f>
         <v>-0.15174099227494608</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="51">
-        <f>DATA!B26/100</f>
-        <v>6435786.7999999998</v>
-      </c>
-      <c r="I11" s="51">
-        <f>DATA!H26/100</f>
-        <v>7233783.2000000002</v>
-      </c>
       <c r="J11" s="50">
-        <f t="shared" si="1"/>
+        <f>(K4/J4)-1</f>
         <v>0.123993604014353</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="51">
-        <f>DATA!B33/100</f>
-        <v>24077245.600000001</v>
-      </c>
-      <c r="I12" s="51">
-        <f>DATA!I33/100</f>
-        <v>111072773.59999999</v>
-      </c>
       <c r="J12" s="50">
-        <f t="shared" si="1"/>
-        <v>3.6131843918226254</v>
+        <f>(K5/J5)-1</f>
+        <v>9.0391668389178115E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="51">
-        <f>DATA!B40/100</f>
-        <v>17746513.199999999</v>
-      </c>
-      <c r="I13" s="51">
-        <f>DATA!I40/100</f>
-        <v>55610429</v>
-      </c>
       <c r="J13" s="50">
-        <f t="shared" si="1"/>
-        <v>2.1335974776160538</v>
+        <f>(K6/J6)-1</f>
+        <v>0.28863656439282948</v>
       </c>
     </row>
   </sheetData>
